--- a/TestData/TMTI0055384_NewCFOpportunityWithNewJobType.xlsx
+++ b/TestData/TMTI0055384_NewCFOpportunityWithNewJobType.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F43628-D0B6-456C-BEC6-1655C69F61C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73868D61-7307-436D-B305-9E979A2066E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" tabRatio="548" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="86">
   <si>
     <t>James Craven</t>
   </si>
@@ -261,6 +261,45 @@
   </si>
   <si>
     <t>Capital Markets</t>
+  </si>
+  <si>
+    <t>Buyside</t>
+  </si>
+  <si>
+    <t>Sellside</t>
+  </si>
+  <si>
+    <t>ESOP Corporate Finance</t>
+  </si>
+  <si>
+    <t>General Financial Advisory</t>
+  </si>
+  <si>
+    <t>Real Estate Brokerage</t>
+  </si>
+  <si>
+    <t>Special Committee Advisory</t>
+  </si>
+  <si>
+    <t>Strategic Alternatives Study</t>
+  </si>
+  <si>
+    <t>Take Over Defense</t>
+  </si>
+  <si>
+    <t>Activism Advisory</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Post Merger Integration</t>
+  </si>
+  <si>
+    <t>Valuation Advisory</t>
+  </si>
+  <si>
+    <t>Advisory (CF)</t>
   </si>
 </sst>
 </file>
@@ -304,12 +343,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,13 +639,13 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -611,7 +653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -632,12 +674,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -664,17 +706,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -692,17 +734,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -715,19 +757,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -819,7 +862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -827,7 +870,7 @@
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -909,6 +952,1149 @@
       </c>
       <c r="AD2" t="s">
         <v>58</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U6" t="s">
+        <v>52</v>
+      </c>
+      <c r="V6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V7" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V8" t="s">
+        <v>53</v>
+      </c>
+      <c r="W8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U10" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W10" t="s">
+        <v>54</v>
+      </c>
+      <c r="X10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U11" t="s">
+        <v>52</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
+        <v>54</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+      <c r="V12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" t="s">
+        <v>54</v>
+      </c>
+      <c r="X12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" t="s">
+        <v>52</v>
+      </c>
+      <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X13" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" t="s">
+        <v>54</v>
+      </c>
+      <c r="X14" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -924,19 +2110,19 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -962,7 +2148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -995,19 +2181,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2386AE-B180-4489-BA71-14068DFEFD5A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1015,12 +2201,147 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TMTI0055384_NewCFOpportunityWithNewJobType.xlsx
+++ b/TestData/TMTI0055384_NewCFOpportunityWithNewJobType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73868D61-7307-436D-B305-9E979A2066E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DB284-7392-4687-9AB7-84835A7039F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" tabRatio="548" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28800" windowHeight="14355" tabRatio="548" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUsers" sheetId="2" r:id="rId1"/>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -351,6 +351,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -759,14 +762,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -869,7 +872,7 @@
       <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
@@ -964,7 +967,7 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D3" t="s">
@@ -1059,7 +1062,7 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
@@ -1154,7 +1157,7 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D5" t="s">
@@ -1249,7 +1252,7 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>76</v>
       </c>
       <c r="D6" t="s">
@@ -1344,7 +1347,7 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D7" t="s">
@@ -1439,7 +1442,7 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D8" t="s">
@@ -1534,7 +1537,7 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D9" t="s">
@@ -1629,7 +1632,7 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
@@ -1724,7 +1727,7 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D11" t="s">
@@ -1819,7 +1822,7 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D12" t="s">
@@ -1907,14 +1910,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D13" t="s">
@@ -2002,14 +2005,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D14" t="s">
@@ -2099,6 +2102,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2184,7 +2188,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
